--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2354625.430022002</v>
+        <v>2350570.5056425</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847139</v>
+        <v>2310564.143223172</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791255</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8318995.04329879</v>
+        <v>8316045.146346696</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>148.2181447868081</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>206.3670033956573</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>74.86702424530458</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>74.86889081808424</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>55.24675346159199</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>89.97200948406412</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>349.0810804946765</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.8470872577918</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -950,7 +950,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794465</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>98.54676348900053</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>30.36829702595319</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>214.0175430895179</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>134.5611382181057</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>72.30123682227985</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>74.07584602384514</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>15.42428558140244</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404353</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.3646640300709</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035426</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219398</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507309</v>
+        <v>60.01194954507272</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484036</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.5802388872325</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380454</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497647</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943239</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1582,7 +1582,7 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
         <v>169.3282772530676</v>
@@ -1594,7 +1594,7 @@
         <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173248</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
-        <v>260.4280903700641</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
         <v>298.5345275142885</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380453</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497646</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1819,7 +1819,7 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
         <v>169.3282772530676</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422876289</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -1910,7 +1910,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135904</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541621</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2795,7 +2795,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211825</v>
+        <v>287.5954430211824</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
@@ -2807,10 +2807,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>226.8509454548577</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414332</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404344</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2855,7 +2855,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419579</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
         <v>298.5345275142884</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007176</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035417</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.0855074921939</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507301</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484028</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723241</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380445</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497638</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.6707049994323</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.903426900358</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281738</v>
+        <v>273.2139126555346</v>
       </c>
       <c r="D32" t="n">
-        <v>272.000346141574</v>
+        <v>265.5568836689348</v>
       </c>
       <c r="E32" t="n">
-        <v>288.971318280696</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313971</v>
+        <v>296.6956602587579</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029519</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752493</v>
+        <v>204.8123861026101</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453491</v>
+        <v>20.92391191189567</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443504</v>
+        <v>48.8185856817958</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622526</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158225</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495919</v>
+        <v>222.6559073769527</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274705</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623488</v>
+        <v>269.5282451897096</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.93943063468</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046336</v>
+        <v>67.32610467782412</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074577</v>
+        <v>52.47323292810653</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258549</v>
+        <v>38.04694813994625</v>
       </c>
       <c r="E34" t="n">
-        <v>44.4168526654646</v>
+        <v>37.97339019282536</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523187</v>
+        <v>39.72284161259263</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762401</v>
+        <v>50.54167953498477</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419605</v>
+        <v>37.89393170155681</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536798</v>
+        <v>15.73364728272874</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.0756081198239</v>
+        <v>6.632145647184657</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535121</v>
+        <v>84.75808915271197</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595233</v>
+        <v>117.3320274868841</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865932</v>
+        <v>166.5545700139539</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734591</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942092</v>
+        <v>164.46726422157</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409218</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175982</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
@@ -3275,16 +3275,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
@@ -3512,16 +3512,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879316</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840512</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
-        <v>292.776907011867</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252672</v>
+        <v>1.098310803921545</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643892</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150903</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866451</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>12.03739529702563</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822811</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812823</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459458</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995157</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332851</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111637</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
-        <v>289.091239546042</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415656</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443897</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627869</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E43" t="n">
-        <v>57.5363845491578</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892507</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G43" t="n">
-        <v>70.1046738913172</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788925</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906118</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.1951400035171</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090444</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432165</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702863</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571523</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779024</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.272679524615</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012914</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840512</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C44" t="n">
-        <v>292.776907011867</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>41.58521707214859</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643892</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150903</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G44" t="n">
-        <v>312.5642884866451</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589425</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822811</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812812</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995157</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332851</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111637</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
-        <v>289.091239546042</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y44" t="n">
-        <v>265.9622298474247</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415656</v>
+        <v>86.88909903415644</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443897</v>
+        <v>72.03622728443885</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627869</v>
+        <v>57.60994249627858</v>
       </c>
       <c r="E46" t="n">
-        <v>57.5363845491578</v>
+        <v>57.53638454915769</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892507</v>
+        <v>59.28583596892496</v>
       </c>
       <c r="G46" t="n">
-        <v>70.1046738913172</v>
+        <v>70.10467389131709</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788925</v>
+        <v>57.45692605788913</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906118</v>
+        <v>35.29664163906106</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.1951400035171</v>
+        <v>26.19514000351698</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090444</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432165</v>
+        <v>136.8950218432164</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702863</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571523</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779024</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.272679524615</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012914</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1069.778091040816</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="C2" t="n">
-        <v>676.6025895437469</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="D2" t="n">
-        <v>526.8872917792943</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="E2" t="n">
-        <v>526.8872917792943</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="F2" t="n">
-        <v>514.0332573496761</v>
+        <v>777.7441318441286</v>
       </c>
       <c r="G2" t="n">
-        <v>504.9109058780833</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703882</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>401.4730945645007</v>
+        <v>242.202127193283</v>
       </c>
       <c r="L2" t="n">
-        <v>448.0059870269533</v>
+        <v>735.5224189118119</v>
       </c>
       <c r="M2" t="n">
-        <v>973.8288764228088</v>
+        <v>1236.689201907262</v>
       </c>
       <c r="N2" t="n">
-        <v>1499.651765818664</v>
+        <v>1236.689201907262</v>
       </c>
       <c r="O2" t="n">
-        <v>1939.691366710993</v>
+        <v>1676.728802799591</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710993</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137463</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078514</v>
+        <v>1820.409826157685</v>
       </c>
       <c r="T2" t="n">
-        <v>1696.52985563793</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U2" t="n">
-        <v>1440.777126072529</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="V2" t="n">
-        <v>1440.777126072529</v>
+        <v>999.0496848552187</v>
       </c>
       <c r="W2" t="n">
-        <v>1069.778091040816</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="X2" t="n">
-        <v>1069.778091040816</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="Y2" t="n">
-        <v>1069.778091040816</v>
+        <v>790.5981662737468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>657.7430775364692</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>507.0888470965614</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>376.9998797180417</v>
       </c>
       <c r="E3" t="n">
-        <v>424.6670329695301</v>
+        <v>240.5533888289294</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526619</v>
+        <v>116.1215827120612</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512724</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703882</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>42.49073853703882</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L3" t="n">
-        <v>42.49073853703882</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>442.2072945938166</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896721</v>
+        <v>1138.346177012113</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580653</v>
+        <v>1384.929834659825</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297051</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750006</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S3" t="n">
-        <v>2100.619883750006</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T3" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U3" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606596</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977663</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1026.36437211095</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>837.0572944609619</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>657.7430775364692</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288.9303683385072</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>288.9303683385072</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="D4" t="n">
-        <v>288.9303683385072</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="E4" t="n">
-        <v>133.3715561977097</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="F4" t="n">
-        <v>133.3715561977097</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703882</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703882</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703882</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>708.2187092468254</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>708.2187092468254</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>708.2187092468254</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>708.2187092468254</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>474.1383870298084</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>474.1383870298084</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1334.028023641011</v>
+        <v>551.2091433733603</v>
       </c>
       <c r="C5" t="n">
-        <v>940.852522143942</v>
+        <v>551.2091433733603</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4113933606097</v>
+        <v>551.2091433733603</v>
       </c>
       <c r="E5" t="n">
-        <v>202.8042413457849</v>
+        <v>551.2091433733603</v>
       </c>
       <c r="F5" t="n">
-        <v>189.9502069161668</v>
+        <v>538.3551089437422</v>
       </c>
       <c r="G5" t="n">
-        <v>180.827855444574</v>
+        <v>125.1923534317453</v>
       </c>
       <c r="H5" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703882</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>42.49073853703882</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>535.8110302555676</v>
+        <v>990.7164596631919</v>
       </c>
       <c r="M5" t="n">
-        <v>1061.633919651423</v>
+        <v>1491.883242658642</v>
       </c>
       <c r="N5" t="n">
-        <v>1587.456809047279</v>
+        <v>1491.883242658642</v>
       </c>
       <c r="O5" t="n">
-        <v>2027.496409939607</v>
+        <v>1491.883242658642</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851941</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851941</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S5" t="n">
-        <v>1958.023371792992</v>
+        <v>1820.409826157685</v>
       </c>
       <c r="T5" t="n">
-        <v>1734.522769352408</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U5" t="n">
-        <v>1734.522769352408</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="V5" t="n">
-        <v>1734.522769352408</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="W5" t="n">
-        <v>1734.522769352408</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="X5" t="n">
-        <v>1734.522769352408</v>
+        <v>951.7038890847572</v>
       </c>
       <c r="Y5" t="n">
-        <v>1734.522769352408</v>
+        <v>951.7038890847572</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>736.0639889622209</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>585.4097585223132</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>455.3207911437935</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695301</v>
+        <v>318.8743002546812</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526619</v>
+        <v>194.442494137813</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>74.38267620967746</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512724</v>
+        <v>74.38267620967746</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>475.3448668189926</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>475.3448668189926</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M6" t="n">
-        <v>1001.167756214848</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="N6" t="n">
-        <v>1526.990645610703</v>
+        <v>1458.08532307434</v>
       </c>
       <c r="O6" t="n">
-        <v>2043.510928201685</v>
+        <v>1619.294926214715</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851941</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S6" t="n">
-        <v>2024.994741509516</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606596</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977663</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1256.481617977663</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1067.174540327675</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>887.8603234031823</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>709.8574388615743</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="C7" t="n">
-        <v>709.8574388615743</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="D7" t="n">
-        <v>554.2243257640891</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="E7" t="n">
-        <v>523.5492782631263</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2233434760993</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G7" t="n">
-        <v>197.9692895755448</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="U7" t="n">
-        <v>943.9377610785913</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="V7" t="n">
-        <v>943.9377610785913</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="W7" t="n">
-        <v>943.9377610785913</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="X7" t="n">
-        <v>709.8574388615743</v>
+        <v>225.7063445899235</v>
       </c>
       <c r="Y7" t="n">
-        <v>709.8574388615743</v>
+        <v>225.7063445899235</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>974.7039764460137</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>581.5284749489442</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>196.087346165612</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>196.087346165612</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>183.2333117359938</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2054.485046394444</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1771.689431236809</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1375.198722157411</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>643.9940382195844</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>643.9940382195844</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>386.3238676264566</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>120.3445224472808</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1843.395526006233</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1545.160705796352</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1254.660258300208</v>
+        <v>731.4357765463913</v>
       </c>
       <c r="E11" t="n">
-        <v>947.0174147039406</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F11" t="n">
-        <v>625.0636575211067</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G11" t="n">
-        <v>306.8415832962982</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>77.69921414997658</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5072,19 +5072,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002407</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2745.011542002407</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2745.011542002407</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2450.499618222652</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>2148.949590430441</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551006</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082776</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979807</v>
       </c>
       <c r="E13" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311671</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798494</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,31 +5200,31 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469767</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852095</v>
+        <v>850.66272518521</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553809</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592126</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1827.815439560371</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1529.58061935049</v>
+        <v>1021.936224042534</v>
       </c>
       <c r="D14" t="n">
-        <v>1239.080171854346</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4373282580791</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>609.4835710752451</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504366</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
+        <v>105.5155633244624</v>
+      </c>
+      <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
-      <c r="I14" t="n">
-        <v>62.11912770411573</v>
-      </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2945.144336927563</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.97820891827</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.97820891827</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.91953177679</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>2133.36950398458</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551007</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082782</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979813</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443721</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445333</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311672</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798495</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.396746836251</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757663</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L16" t="n">
         <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469766</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5467,19 +5467,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852105</v>
+        <v>850.66272518521</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592136</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498593</v>
@@ -5501,13 +5501,13 @@
         <v>827.8895422975459</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099321</v>
+        <v>542.6718405099323</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803437</v>
+        <v>261.1858216803439</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292431</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,16 +5540,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5601,16 +5601,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,10 +5674,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.010538436486</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
         <v>623.4297566485498</v>
@@ -5686,37 +5686,37 @@
         <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975459</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099323</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5780,22 +5780,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5923,37 +5923,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829235</v>
@@ -6020,19 +6020,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.010538436486</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424154</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214272</v>
@@ -6233,16 +6233,16 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.386271932278</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>3079.395388107029</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6254,10 +6254,10 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6266,10 +6266,10 @@
         <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6312,16 +6312,16 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1875.180111332205</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
-        <v>2391.700393923186</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
         <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
@@ -6373,7 +6373,7 @@
         <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
@@ -6382,34 +6382,34 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192014</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904117</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
@@ -6424,7 +6424,7 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
         <v>594.597435602648</v>
@@ -6446,16 +6446,16 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218608</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I29" t="n">
         <v>73.36485894755026</v>
@@ -6464,10 +6464,10 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
         <v>1895.47226483567</v>
@@ -6476,10 +6476,10 @@
         <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517123</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414154</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878063</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879676</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H31" t="n">
         <v>111.518603023284</v>
@@ -6628,7 +6628,7 @@
         <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904114</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286446</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.246771114493</v>
+        <v>890.2201666674332</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423747</v>
+        <v>590.5275805474757</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282818</v>
+        <v>294.5666773855437</v>
       </c>
       <c r="H32" t="n">
-        <v>96.1864398926767</v>
+        <v>87.68547930209928</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304548</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193354</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1611.495948082445</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2139.307231719907</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2605.863648690207</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3062.541648462114</v>
+        <v>3040.411447593639</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243449</v>
+        <v>3327.510737231445</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152274</v>
+        <v>3327.510737231445</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491229</v>
+        <v>3278.19903452256</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448549</v>
+        <v>3171.900284432042</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281052</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382474</v>
+        <v>2808.444450270288</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748666</v>
+        <v>2554.64726758864</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079626</v>
+        <v>2282.396514871762</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155367</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304548</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027729</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633126</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="M33" t="n">
-        <v>984.9628415633126</v>
+        <v>1127.175992653264</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2188.57533258022</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590211</v>
+        <v>341.6872565554785</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229142</v>
+        <v>288.6839909715325</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233329</v>
+        <v>250.252730224112</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804393</v>
+        <v>211.8957704333793</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913162</v>
+        <v>171.7716879964171</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886657</v>
+        <v>120.7194864459274</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806365</v>
+        <v>82.44278775748622</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304548</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304548</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="K34" t="n">
-        <v>258.868176133373</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>451.6289669133297</v>
+        <v>312.5128957283706</v>
       </c>
       <c r="M34" t="n">
-        <v>746.4110528919794</v>
+        <v>613.674009554933</v>
       </c>
       <c r="N34" t="n">
-        <v>1038.091194563574</v>
+        <v>810.7134513543725</v>
       </c>
       <c r="O34" t="n">
-        <v>1309.286469245668</v>
+        <v>1088.287753884379</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022246</v>
+        <v>1323.033455149256</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392297</v>
+        <v>1326.455651519307</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422778</v>
+        <v>1319.756514501949</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003231</v>
+        <v>1234.142283034563</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.22861956937</v>
+        <v>1115.625083552862</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209175</v>
+        <v>947.3881441448275</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279026</v>
+        <v>798.6106513157165</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569841</v>
+        <v>632.4821015969588</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378711</v>
+        <v>515.6036317300068</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524184</v>
+        <v>409.693422896715</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,46 +7099,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960409</v>
+        <v>313.6614512960418</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>499.9530296343059</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655151</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072231</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7193,31 +7193,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1639.225066965239</v>
+        <v>1340.175609875976</v>
       </c>
       <c r="C41" t="n">
-        <v>1343.490817458303</v>
+        <v>1044.441360369039</v>
       </c>
       <c r="D41" t="n">
-        <v>1055.490940665104</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>750.3486677717815</v>
+        <v>738.1896826232702</v>
       </c>
       <c r="F41" t="n">
-        <v>430.8954812918923</v>
+        <v>418.7364961433811</v>
       </c>
       <c r="G41" t="n">
-        <v>115.1739777700286</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215177</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7439,22 +7439,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>2910.824731686509</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2752.513254111242</v>
+        <v>2752.513254111243</v>
       </c>
       <c r="V41" t="n">
-        <v>2507.847696804893</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2234.289913763314</v>
+        <v>2234.289913763315</v>
       </c>
       <c r="X41" t="n">
-        <v>1942.278560686503</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y41" t="n">
-        <v>1942.278560686503</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344875</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906097</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832575</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E43" t="n">
-        <v>286.507084832593</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F43" t="n">
-        <v>226.622402035699</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252776</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7723010769046</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822074</v>
+        <v>68.23195016743975</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676787</v>
+        <v>245.5691623529112</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170079</v>
+        <v>505.1989733022405</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308013</v>
+        <v>786.9927227160341</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822776</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940013</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792121</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237702</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860412</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033094</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191461</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423495</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234453</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557632</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288794</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356558</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1565.708003466906</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C44" t="n">
-        <v>1269.97375395997</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D44" t="n">
-        <v>1269.97375395997</v>
+        <v>1002.436090599191</v>
       </c>
       <c r="E44" t="n">
-        <v>964.831481066647</v>
+        <v>697.2938177058683</v>
       </c>
       <c r="F44" t="n">
-        <v>645.3782945867579</v>
+        <v>377.8406312259792</v>
       </c>
       <c r="G44" t="n">
-        <v>329.656791064894</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215177</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2947.644907630508</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2702.979350324159</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W44" t="n">
-        <v>2429.42156728258</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2137.41021420577</v>
+        <v>1942.278560686503</v>
       </c>
       <c r="Y44" t="n">
-        <v>1868.76149718817</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>96.81867335321709</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>580.3847592515303</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.156408878212</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344875</v>
+        <v>475.5803720344866</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906097</v>
+        <v>402.816506090609</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832575</v>
+        <v>344.6246449832569</v>
       </c>
       <c r="E46" t="n">
-        <v>286.507084832593</v>
+        <v>286.5070848325926</v>
       </c>
       <c r="F46" t="n">
-        <v>226.622402035699</v>
+        <v>226.6224020356987</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252776</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7723010769046</v>
+        <v>97.77230107690448</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822074</v>
+        <v>127.8475561822075</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676787</v>
+        <v>305.1847683676789</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170079</v>
+        <v>564.8145793170082</v>
       </c>
       <c r="M46" t="n">
-        <v>846.6083287308013</v>
+        <v>846.6083287308018</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.30013383754</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940013</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792121</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237702</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860412</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033094</v>
+        <v>1506.359601033093</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191461</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423495</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234453</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557632</v>
+        <v>825.657018155762</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288794</v>
+        <v>689.0179479288782</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356558</v>
+        <v>563.3471387356548</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>200.6887348820987</v>
       </c>
       <c r="L2" t="n">
-        <v>200.2510914097368</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107125</v>
+        <v>655.9541253305053</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507694</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1412190763602</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671519</v>
+        <v>591.6011865869448</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>341.7619605532438</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>604.3451443045117</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107125</v>
+        <v>655.9541253305053</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507694</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>248.3221713947981</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,19 +8298,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622972</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671519</v>
+        <v>591.6011865869448</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>255.5255418589652</v>
       </c>
       <c r="P6" t="n">
-        <v>168.9278079003818</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,13 +8462,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>464.6079711628815</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8532,22 +8532,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>656.228399718133</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8772,22 +8772,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,25 +9003,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>624.8237719316268</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5321323046928</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9717,22 +9717,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9960,19 +9960,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680203</v>
       </c>
       <c r="N27" t="n">
-        <v>345.597757882153</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>744.8605591506555</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10431,22 +10431,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>345.5977578821532</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,13 +11373,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11391,10 +11391,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364593</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>27.53818568274096</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292004</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.521272659185342e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385772</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414339</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404351</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.2743219418611</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>31.13871417189317</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213455</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>212.3379851619169</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252672</v>
+        <v>243.5346609531185</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.486906268228</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812823</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459458</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>30.0967326709485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>720819.0545367996</v>
+        <v>719315.1855023988</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>720819.0545367996</v>
+        <v>719315.1855023988</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>691583.118888765</v>
+        <v>691583.1188887651</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>595096.1877080775</v>
       </c>
       <c r="C2" t="n">
-        <v>595096.1877080778</v>
+        <v>595096.1877080777</v>
       </c>
       <c r="D2" t="n">
-        <v>595096.1877080775</v>
+        <v>595096.1877080776</v>
       </c>
       <c r="E2" t="n">
         <v>559271.2048546864</v>
       </c>
       <c r="F2" t="n">
-        <v>559271.2048546865</v>
+        <v>559271.2048546863</v>
       </c>
       <c r="G2" t="n">
-        <v>595096.187708078</v>
+        <v>595096.1877080777</v>
       </c>
       <c r="H2" t="n">
         <v>595096.1877080776</v>
       </c>
       <c r="I2" t="n">
-        <v>595096.1877080776</v>
+        <v>595096.1877080777</v>
       </c>
       <c r="J2" t="n">
         <v>595096.1877080773</v>
       </c>
       <c r="K2" t="n">
-        <v>595096.1877080766</v>
+        <v>595096.1877080769</v>
       </c>
       <c r="L2" t="n">
+        <v>595096.1877080774</v>
+      </c>
+      <c r="M2" t="n">
+        <v>595096.1877080778</v>
+      </c>
+      <c r="N2" t="n">
         <v>595096.1877080777</v>
       </c>
-      <c r="M2" t="n">
-        <v>595096.1877080777</v>
-      </c>
-      <c r="N2" t="n">
-        <v>595096.1877080775</v>
-      </c>
       <c r="O2" t="n">
-        <v>561709.7601539129</v>
+        <v>561709.7601539131</v>
       </c>
       <c r="P2" t="n">
-        <v>561709.7601539132</v>
+        <v>561709.7601539131</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343508</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602651</v>
+        <v>26460.41160941825</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301437</v>
+        <v>29094.9558730144</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469666</v>
+        <v>215329.5897923932</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670113</v>
+        <v>46725.80335481251</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436848</v>
+        <v>43782.97194555662</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015665</v>
+        <v>18983.5598301568</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224181.5440797611</v>
+        <v>229389.8493215837</v>
       </c>
       <c r="C4" t="n">
-        <v>224181.5440797612</v>
+        <v>229389.8493215837</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26427,13 +26427,13 @@
         <v>161760.5563326215</v>
       </c>
       <c r="F4" t="n">
-        <v>161760.5563326215</v>
+        <v>161760.5563326216</v>
       </c>
       <c r="G4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="H4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="I4" t="n">
         <v>186364.8769761036</v>
@@ -26445,19 +26445,19 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186792.5147858255</v>
+        <v>186659.1201767708</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="O4" t="n">
+        <v>163435.172231613</v>
+      </c>
+      <c r="P4" t="n">
         <v>163435.1722316129</v>
-      </c>
-      <c r="P4" t="n">
-        <v>163435.1722316128</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,28 +26488,28 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446768</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.4077825507</v>
+        <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.4077825507</v>
+        <v>55320.40778255071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126998.7852058161</v>
+        <v>131651.0048269911</v>
       </c>
       <c r="C6" t="n">
-        <v>304994.0823401672</v>
+        <v>301300.0107035412</v>
       </c>
       <c r="D6" t="n">
-        <v>295210.7127400874</v>
+        <v>287474.4235166959</v>
       </c>
       <c r="E6" t="n">
-        <v>211945.4278754437</v>
+        <v>211836.8673213424</v>
       </c>
       <c r="F6" t="n">
-        <v>342398.3590131559</v>
+        <v>342289.7984590544</v>
       </c>
       <c r="G6" t="n">
-        <v>321466.5855434404</v>
+        <v>321466.5855434401</v>
       </c>
       <c r="H6" t="n">
         <v>350561.5414164544</v>
       </c>
       <c r="I6" t="n">
-        <v>350561.5414164544</v>
+        <v>350561.5414164545</v>
       </c>
       <c r="J6" t="n">
-        <v>122475.8980667046</v>
+        <v>128992.1832212779</v>
       </c>
       <c r="K6" t="n">
-        <v>344321.7730136704</v>
+        <v>344321.7730136707</v>
       </c>
       <c r="L6" t="n">
-        <v>305427.4260810834</v>
+        <v>301378.5888706106</v>
       </c>
       <c r="M6" t="n">
-        <v>307830.264482086</v>
+        <v>306778.5694708981</v>
       </c>
       <c r="N6" t="n">
-        <v>350561.5414164542</v>
+        <v>350561.5414164545</v>
       </c>
       <c r="O6" t="n">
-        <v>323970.6203095927</v>
+        <v>323869.4493170041</v>
       </c>
       <c r="P6" t="n">
-        <v>342954.1801397496</v>
+        <v>342853.009147161</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,25 +26707,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O2" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P2" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880685</v>
+        <v>831.8776843078613</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126797</v>
+        <v>36.368694841268</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304849</v>
+        <v>57.62257963304845</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087642</v>
+        <v>58.40725419351564</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165948</v>
+        <v>14.33013548902018</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769581</v>
+        <v>23.729449787696</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630977</v>
+        <v>85.18305253651693</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559194</v>
+        <v>646.8007142757123</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455245</v>
+        <v>129.6883820257318</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126797</v>
+        <v>36.368694841268</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304849</v>
+        <v>57.62257963304845</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630977</v>
+        <v>85.18305253651693</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,10 +27379,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>233.3685727086908</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>160.9220412857381</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>43.99219550354962</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>100.3450828649964</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>128.1091850427963</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>76.59950387748479</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>49.47660913994434</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713824</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27679,7 +27679,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026287</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>35.03460684012931</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>123.6349269934363</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27825,13 +27825,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>19.34431822393034</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>274.4699897387712</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27916,7 +27916,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>208.1958612258543</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28746,19 +28746,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5.636002634529035</v>
+        <v>5.636002634528126</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28995,16 +28995,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5.636002634529005</v>
-      </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29220,7 +29220,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,19 +29229,19 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.636002634528126</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="P29" t="n">
-        <v>30.27223765901277</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431636</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>26.78466270502156</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.5863713539249</v>
+        <v>103.2865954513708</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539249</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>28.92237465268371</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539249</v>
+        <v>13.98970481639424</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30171,19 +30171,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>5.636002634529035</v>
+        <v>5.636002634529945</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30265,31 +30265,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155852</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30378,31 +30378,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30411,13 +30411,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.636002634529945</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J43" t="n">
-        <v>96.4668394702317</v>
+        <v>36.24905561693101</v>
       </c>
       <c r="K43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="M43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="N43" t="n">
-        <v>36.2490556169347</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="O43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="R43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="C44" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="D44" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="E44" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="F44" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="G44" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="H44" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="I44" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="T44" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="U44" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="V44" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="W44" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="X44" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="C46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="D46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="E46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="F46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="G46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="H46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="I46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="J46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="K46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="L46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="M46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="N46" t="n">
-        <v>96.4668394702317</v>
+        <v>36.24905561693217</v>
       </c>
       <c r="O46" t="n">
-        <v>36.2490556169347</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="P46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="R46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="S46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="T46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="U46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="V46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="W46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="X46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.4668394702317</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>57.63033170286129</v>
       </c>
       <c r="L2" t="n">
-        <v>47.00292167924511</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129853</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>403.7540970270483</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>249.0744016643549</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>451.09697457402</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129853</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>98.02072415387291</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1342317129853</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>162.8379829700763</v>
       </c>
       <c r="P6" t="n">
-        <v>81.84444308106717</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,13 +35182,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>314.3065239219563</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>570.8562868639664</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215734</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.4480384844689</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>539.4516590774601</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>362.1450102553808</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716079</v>
+        <v>169.984252171607</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644681488</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634527946</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,19 +36525,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094869</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36601,22 +36601,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187084</v>
       </c>
       <c r="N27" t="n">
-        <v>260.2256450279863</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751656005</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698322</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>659.4884462964889</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215743</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611263</v>
+        <v>176.6529321611265</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
@@ -37002,13 +37002,13 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113954</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446898</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>471.2691080508079</v>
+        <v>560.5142791723505</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605126</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.299058364984</v>
+        <v>289.99928246243</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659162</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2480290407349</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>194.7078694747037</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067169</v>
+        <v>304.2031452793561</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288837</v>
+        <v>199.029739191353</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910038</v>
+        <v>280.378083363643</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>237.1168699645223</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37467,19 +37467,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>171.421497456549</v>
+        <v>171.4214974565499</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37561,7 +37561,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110598</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37707,13 +37707,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716088</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>260.2256450279866</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807263</v>
+        <v>6.174568144771941</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570417</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922517</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230237</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>221.2890899918935</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073106</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081899</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038419</v>
+        <v>99.92360348038436</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
@@ -38111,10 +38111,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807263</v>
+        <v>66.39235199807274</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570417</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922517</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230237</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451905</v>
+        <v>221.289089991891</v>
       </c>
       <c r="O46" t="n">
-        <v>200.5973051540136</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081899</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038419</v>
+        <v>99.9236034803843</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
